--- a/dist/data/profiles/xlsx/bluff/profile 19-2 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 19-2 graph.xlsx
@@ -1530,11 +1530,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="20324377"/>
-        <c:axId val="12519919"/>
+        <c:axId val="85550173"/>
+        <c:axId val="35922288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20324377"/>
+        <c:axId val="85550173"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,12 +1615,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12519919"/>
+        <c:crossAx val="35922288"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="12519919"/>
+        <c:axId val="35922288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1710,7 +1710,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20324377"/>
+        <c:crossAx val="85550173"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
